--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -162,10 +162,10 @@
     <t>integer</t>
   </si>
   <si>
-    <t>d_id_sequence</t>
-  </si>
-  <si>
-    <t>Enter the sequence ID</t>
+    <t>d_id_index</t>
+  </si>
+  <si>
+    <t>Enter the index ID</t>
   </si>
   <si>
     <t>. &gt; 0</t>
@@ -177,6 +177,12 @@
     <t>${d_IDMethod} != 'Scanner'</t>
   </si>
   <si>
+    <t>d_participant_enumerator</t>
+  </si>
+  <si>
+    <t>Enter the enumerator that registered the participant</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -186,7 +192,7 @@
     <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
   </si>
   <si>
-    <t>concat(${d_enumerator}, '-', ${d_cluster_id}, '-', ${d_id_sequence})</t>
+    <t>concat(${d_participant_enumerator}, '-', ${d_cluster_id}, '-', ${d_id_index})</t>
   </si>
   <si>
     <t>select_one yes_no</t>
@@ -1680,14 +1686,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1957,59 +1963,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A10" s="18" t="s">
+    <row r="10" s="13" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="22"/>
       <c r="H10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="C11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>60</v>
@@ -2032,7 +2031,7 @@
     </row>
     <row r="13" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>62</v>
@@ -2053,73 +2052,71 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="24" t="s">
+    <row r="14" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:13">
+      <c r="A15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="24"/>
       <c r="I15" s="19"/>
       <c r="J15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:13">
+    <row r="16" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="25"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="24" t="s">
-        <v>73</v>
-      </c>
+      <c r="H16" s="24"/>
       <c r="I16" s="19"/>
       <c r="J16" s="29" t="s">
         <v>18</v>
@@ -2130,20 +2127,20 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="33"/>
       <c r="H17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="29" t="s">
@@ -2155,20 +2152,22 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:13">
       <c r="A18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="D18" s="25"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="H18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="19"/>
       <c r="J18" s="29" t="s">
         <v>18</v>
       </c>
@@ -2176,57 +2175,55 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="57" spans="1:13">
+    <row r="19" s="3" customFormat="1" spans="1:13">
       <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="29"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:13">
+    <row r="20" s="3" customFormat="1" ht="57" spans="1:13">
       <c r="A20" s="18" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="33"/>
       <c r="H20" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" s="3" customFormat="1" spans="1:13">
       <c r="A21" s="18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>86</v>
@@ -2234,26 +2231,24 @@
       <c r="C21" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="I21" s="18"/>
       <c r="J21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>88</v>
@@ -2262,13 +2257,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="28"/>
       <c r="H22" s="24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="29" t="s">
@@ -2280,22 +2275,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="28"/>
       <c r="H23" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="29" t="s">
@@ -2307,54 +2302,69 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="28"/>
       <c r="H24" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="15" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" ht="56.25" customHeight="1" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" ht="28.5" spans="1:8">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>101</v>
@@ -2362,26 +2372,30 @@
       <c r="C27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" ht="28.5" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="H28" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2391,6 +2405,14 @@
       </c>
       <c r="B30" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +2442,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2429,261 +2451,261 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:3">
       <c r="A18" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -2692,226 +2714,226 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2921,226 +2943,226 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3150,7 +3172,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B60" s="3">
         <v>101</v>
@@ -3159,12 +3181,12 @@
         <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B61" s="3">
         <v>102</v>
@@ -3173,12 +3195,12 @@
         <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B62" s="3">
         <v>103</v>
@@ -3187,12 +3209,12 @@
         <v>103</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B63" s="3">
         <v>104</v>
@@ -3201,12 +3223,12 @@
         <v>104</v>
       </c>
       <c r="F63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B64" s="3">
         <v>105</v>
@@ -3215,12 +3237,12 @@
         <v>105</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B65" s="3">
         <v>106</v>
@@ -3229,12 +3251,12 @@
         <v>106</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B66" s="3">
         <v>107</v>
@@ -3243,12 +3265,12 @@
         <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B67" s="3">
         <v>108</v>
@@ -3257,12 +3279,12 @@
         <v>108</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B68" s="3">
         <v>109</v>
@@ -3271,12 +3293,12 @@
         <v>109</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B69" s="3">
         <v>110</v>
@@ -3285,12 +3307,12 @@
         <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B70" s="3">
         <v>111</v>
@@ -3299,12 +3321,12 @@
         <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B71" s="3">
         <v>112</v>
@@ -3313,12 +3335,12 @@
         <v>112</v>
       </c>
       <c r="F71" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B72" s="3">
         <v>113</v>
@@ -3327,12 +3349,12 @@
         <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B73" s="3">
         <v>114</v>
@@ -3341,12 +3363,12 @@
         <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B74" s="3">
         <v>115</v>
@@ -3355,12 +3377,12 @@
         <v>115</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B75" s="3">
         <v>116</v>
@@ -3369,7 +3391,7 @@
         <v>116</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4660,27 +4682,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -1693,7 +1693,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="10" s="13" customFormat="1" ht="28.5" spans="1:10">
       <c r="A10" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>53</v>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -400,37 +400,37 @@
     <t>why_invalid</t>
   </si>
   <si>
-    <t>Absence.de.ligne.temoin/controle</t>
+    <t>Absence.of.control.line</t>
   </si>
   <si>
     <t>Absence of control line</t>
   </si>
   <si>
-    <t>Ligne.temoin.discontinue/partielle</t>
+    <t>Broken/partial.control.line</t>
   </si>
   <si>
     <t>Broken/partial control line</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulty.of.absorbing.sample</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulty.of.migrating.sample</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
   </si>
   <si>
-    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
+    <t>Trace.of.blood.persists</t>
   </si>
   <si>
     <t>Trace of blood persists</t>
   </si>
   <si>
-    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
+    <t>Insufficient.blood.volume.due.to.pipette</t>
   </si>
   <si>
     <t>Insufficient blood volume due to pipette</t>
@@ -1688,12 +1688,12 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2427,10 +2427,10 @@
   <sheetPr/>
   <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C18"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="168">
   <si>
     <t>type</t>
   </si>
@@ -159,40 +159,28 @@
     <t>${d_IDMethod} = 'Scanner'</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>d_id_index</t>
-  </si>
-  <si>
-    <t>Enter the index ID</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>d_code_id</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test</t>
   </si>
   <si>
     <t>${d_IDMethod} != 'Scanner'</t>
   </si>
   <si>
-    <t>d_participant_enumerator</t>
-  </si>
-  <si>
-    <t>Enter the enumerator that registered the participant</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>d_code_id</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
-  </si>
-  <si>
-    <t>concat(${d_participant_enumerator}, '-', ${d_cluster_id}, '-', ${d_id_index})</t>
+    <t>d_code_id2</t>
+  </si>
+  <si>
+    <t>Please repeat the unique ID</t>
+  </si>
+  <si>
+    <t>. = ${d_code_id}</t>
+  </si>
+  <si>
+    <t>The repeated code must be hte same</t>
   </si>
   <si>
     <t>select_one yes_no</t>
@@ -469,54 +457,12 @@
     <t>ID_generation</t>
   </si>
   <si>
-    <t>Automatic ID generation</t>
-  </si>
-  <si>
-    <t>Génération automatique</t>
-  </si>
-  <si>
-    <t>Kilifi</t>
-  </si>
-  <si>
-    <t>Kwale</t>
+    <t>Manual</t>
   </si>
   <si>
     <t>Mombasa</t>
   </si>
   <si>
-    <t>Ganze</t>
-  </si>
-  <si>
-    <t>Kaloleni</t>
-  </si>
-  <si>
-    <t>Kilifi North</t>
-  </si>
-  <si>
-    <t>Kilifi South</t>
-  </si>
-  <si>
-    <t>Magarini</t>
-  </si>
-  <si>
-    <t>Malindi</t>
-  </si>
-  <si>
-    <t>Rabai</t>
-  </si>
-  <si>
-    <t>Kinango</t>
-  </si>
-  <si>
-    <t>Lunga Lunga</t>
-  </si>
-  <si>
-    <t>Matuga</t>
-  </si>
-  <si>
-    <t>Msambweni</t>
-  </si>
-  <si>
     <t>Changamwe</t>
   </si>
   <si>
@@ -532,52 +478,34 @@
     <t>Nyali</t>
   </si>
   <si>
-    <t>Village 1</t>
-  </si>
-  <si>
-    <t>Village 2</t>
-  </si>
-  <si>
-    <t>Village 3</t>
-  </si>
-  <si>
-    <t>Village 4</t>
-  </si>
-  <si>
-    <t>Village 5</t>
-  </si>
-  <si>
-    <t>Village 6</t>
-  </si>
-  <si>
-    <t>Village 7</t>
-  </si>
-  <si>
-    <t>Village 8</t>
-  </si>
-  <si>
-    <t>Village 9</t>
-  </si>
-  <si>
-    <t>Village 10</t>
-  </si>
-  <si>
-    <t>Village 11</t>
-  </si>
-  <si>
-    <t>Village 12</t>
-  </si>
-  <si>
-    <t>Village 13</t>
-  </si>
-  <si>
-    <t>Village 14</t>
-  </si>
-  <si>
-    <t>Village 15</t>
-  </si>
-  <si>
-    <t>Village 16</t>
+    <t>Chaani</t>
+  </si>
+  <si>
+    <t>Chuda</t>
+  </si>
+  <si>
+    <t>Kidongo Basi</t>
+  </si>
+  <si>
+    <t>Majengo</t>
+  </si>
+  <si>
+    <t>Maweni</t>
+  </si>
+  <si>
+    <t>Maweni ya Timbuani ward</t>
+  </si>
+  <si>
+    <t>Msikiti Nuru</t>
+  </si>
+  <si>
+    <t>Mtopanga</t>
+  </si>
+  <si>
+    <t>Ng.ombeni</t>
+  </si>
+  <si>
+    <t>Vijiweni ya Mtongwe ward</t>
   </si>
   <si>
     <t>cluster_id</t>
@@ -595,10 +523,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>3. Kenya - Pre TAS LF FTS Results Form</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_3_resultat_fts_202203</t>
+    <t>3. Kenya - Pre TAS LF FTS Results Form V2</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_3_resultat_fts_202203_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -615,21 +543,6 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -672,33 +585,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,16 +601,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,14 +632,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +670,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,14 +684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,6 +698,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -793,17 +715,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -822,7 +751,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,157 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,6 +920,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,15 +979,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1079,13 +999,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,163 +1038,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1279,26 +1214,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1307,10 +1241,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1322,13 +1256,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1345,26 +1276,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1407,11 +1335,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1686,26 +1616,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5037037037037" customWidth="1"/>
     <col min="2" max="2" width="19.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.2518518518519" style="9" customWidth="1"/>
+    <col min="3" max="3" width="42.6222222222222" style="13" customWidth="1"/>
+    <col min="4" max="4" width="41.2518518518519" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.6222222222222" customWidth="1"/>
     <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
-    <col min="7" max="7" width="29.5037037037037" style="9" customWidth="1"/>
-    <col min="8" max="8" width="49.3777777777778" style="15" customWidth="1"/>
+    <col min="7" max="7" width="29.5037037037037" style="8" customWidth="1"/>
+    <col min="8" max="8" width="49.3777777777778" style="14" customWidth="1"/>
     <col min="9" max="9" width="12.6222222222222" customWidth="1"/>
     <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
     <col min="11" max="11" width="35.3777777777778" customWidth="1"/>
@@ -1714,705 +1644,678 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:13">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="18"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="18"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="18" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="18" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:10">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="9" customFormat="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" s="13" customFormat="1" spans="1:10">
-      <c r="A9" s="13" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="20"/>
+      <c r="H9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:13">
+      <c r="A10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="C10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="21" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" s="13" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="H10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A11" s="18" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="C12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:13">
+      <c r="A14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
+      <c r="C15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:13">
-      <c r="A15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:13">
+      <c r="A16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:13">
+      <c r="A17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:13">
+      <c r="A18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="57" spans="1:13">
+      <c r="A19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:13">
+      <c r="A20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A16" s="18" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="29" t="s">
+      <c r="B22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:13">
-      <c r="A17" s="18" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="24" t="s">
+      <c r="B23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:13">
-      <c r="A18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="24" t="s">
+      <c r="B24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" ht="56.25" customHeight="1" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:13">
-      <c r="A19" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A20" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:13">
-      <c r="A21" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="18" t="s">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" ht="28.5" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" ht="28.5" spans="1:8">
-      <c r="A28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="14" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="B29" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2425,12 +2328,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B12"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2441,2219 +2344,1940 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>118</v>
+      <c r="C3" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C15" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="C16" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="C17" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C18" s="32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="35" t="s">
+    <row r="19" s="4" customFormat="1" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="B20" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="35" t="s">
+      <c r="C20" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>101</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>102</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43">
+        <v>103</v>
+      </c>
+      <c r="C43">
+        <v>103</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44">
+        <v>104</v>
+      </c>
+      <c r="C44">
+        <v>104</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45">
+        <v>105</v>
+      </c>
+      <c r="C45">
+        <v>105</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46">
+        <v>106</v>
+      </c>
+      <c r="C46">
+        <v>106</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <v>107</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48">
+        <v>108</v>
+      </c>
+      <c r="C48">
+        <v>108</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49">
+        <v>109</v>
+      </c>
+      <c r="C49">
+        <v>109</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50">
+        <v>110</v>
+      </c>
+      <c r="C50">
+        <v>110</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" t="s">
-        <v>167</v>
-      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="3">
-        <v>101</v>
-      </c>
-      <c r="C60" s="3">
-        <v>101</v>
-      </c>
-      <c r="F60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="3">
-        <v>102</v>
-      </c>
-      <c r="C61" s="3">
-        <v>102</v>
-      </c>
-      <c r="F61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="3">
-        <v>103</v>
-      </c>
-      <c r="C62" s="3">
-        <v>103</v>
-      </c>
-      <c r="F62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B63" s="3">
-        <v>104</v>
-      </c>
-      <c r="C63" s="3">
-        <v>104</v>
-      </c>
-      <c r="F63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="3">
-        <v>105</v>
-      </c>
-      <c r="C64" s="3">
-        <v>105</v>
-      </c>
-      <c r="F64" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="3">
-        <v>106</v>
-      </c>
-      <c r="C65" s="3">
-        <v>106</v>
-      </c>
-      <c r="F65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="3">
-        <v>107</v>
-      </c>
-      <c r="C66" s="3">
-        <v>107</v>
-      </c>
-      <c r="F66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="3">
-        <v>108</v>
-      </c>
-      <c r="C67" s="3">
-        <v>108</v>
-      </c>
-      <c r="F67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="3">
-        <v>109</v>
-      </c>
-      <c r="C68" s="3">
-        <v>109</v>
-      </c>
-      <c r="F68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="3">
-        <v>110</v>
-      </c>
-      <c r="C69" s="3">
-        <v>110</v>
-      </c>
-      <c r="F69" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" s="3">
-        <v>111</v>
-      </c>
-      <c r="C70" s="3">
-        <v>111</v>
-      </c>
-      <c r="F70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="3">
-        <v>112</v>
-      </c>
-      <c r="C71" s="3">
-        <v>112</v>
-      </c>
-      <c r="F71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" s="3">
-        <v>113</v>
-      </c>
-      <c r="C72" s="3">
-        <v>113</v>
-      </c>
-      <c r="F72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="3">
-        <v>114</v>
-      </c>
-      <c r="C73" s="3">
-        <v>114</v>
-      </c>
-      <c r="F73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="3">
-        <v>115</v>
-      </c>
-      <c r="C74" s="3">
-        <v>115</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B75" s="3">
-        <v>116</v>
-      </c>
-      <c r="C75" s="3">
-        <v>116</v>
-      </c>
-      <c r="F75" t="s">
-        <v>183</v>
-      </c>
+    <row r="60" spans="1:3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="11"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="11"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="11"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="11"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="11"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="11"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="11"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="11"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="11"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="11"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="11"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="11"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="11"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="11"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="11"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="11"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="11"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="11"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="11"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="11"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="11"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="11"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="11"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="11"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="11"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="11"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="11"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="11"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="11"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="11"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="11"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="11"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="11"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="11"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="11"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="11"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="11"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="11"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="11"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="11"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="11"/>
+      <c r="A116" s="10"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="11"/>
+      <c r="A117" s="10"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="11"/>
+      <c r="A118" s="10"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="11"/>
+      <c r="A119" s="10"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="11"/>
+      <c r="A120" s="10"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="11"/>
+      <c r="A121" s="10"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="11"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="11"/>
+      <c r="A123" s="10"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="11"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="11"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="11"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="11"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="11"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="11"/>
+      <c r="A129" s="10"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="11"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="11"/>
+      <c r="A131" s="10"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="11"/>
+      <c r="A132" s="10"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="11"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="11"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="11"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="11"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="11"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="11"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="11"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="11"/>
+      <c r="A140" s="10"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="11"/>
+      <c r="A141" s="10"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="11"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="11"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="11"/>
+      <c r="A144" s="10"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="11"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="11"/>
+      <c r="A146" s="10"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="11"/>
+      <c r="A147" s="10"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="11"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="11"/>
+      <c r="A149" s="10"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="11"/>
+      <c r="A150" s="10"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="11"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="11"/>
+      <c r="A152" s="10"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="11"/>
+      <c r="A153" s="10"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="11"/>
+      <c r="A154" s="10"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="11"/>
+      <c r="A155" s="10"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="11"/>
+      <c r="A156" s="10"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="11"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="11"/>
+      <c r="A158" s="10"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="11"/>
+      <c r="A159" s="10"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="11"/>
+      <c r="A160" s="10"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="11"/>
+      <c r="A161" s="10"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="11"/>
+      <c r="A162" s="10"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="11"/>
+      <c r="A163" s="10"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="11"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="11"/>
+      <c r="A165" s="10"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="11"/>
+      <c r="A166" s="10"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="11"/>
+      <c r="A167" s="10"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="11"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="11"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="11"/>
+      <c r="A170" s="10"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="11"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="11"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="11"/>
+      <c r="A173" s="10"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="11"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="11"/>
+      <c r="A175" s="10"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="11"/>
+      <c r="A176" s="10"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="11"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="11"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="11"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="11"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="11"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="11"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="11"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="11"/>
+      <c r="A184" s="10"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="11"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="11"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="11"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="11"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="11"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="11"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="11"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="11"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="11"/>
+      <c r="A193" s="10"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="11"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="11"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="11"/>
+      <c r="A196" s="10"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="11"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="11"/>
+      <c r="A198" s="10"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="11"/>
+      <c r="A199" s="10"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="11"/>
+      <c r="A200" s="10"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="11"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="11"/>
+      <c r="A202" s="10"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="11"/>
+      <c r="A203" s="10"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="11"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="11"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="11"/>
+      <c r="A206" s="10"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="11"/>
+      <c r="A207" s="10"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="11"/>
+      <c r="A208" s="10"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="11"/>
+      <c r="A209" s="10"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="11"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="11"/>
+      <c r="A211" s="10"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="11"/>
+      <c r="A212" s="10"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="11"/>
+      <c r="A213" s="10"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="11"/>
+      <c r="A214" s="10"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="11"/>
+      <c r="A215" s="10"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="11"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="11"/>
+      <c r="A217" s="10"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="11"/>
+      <c r="A218" s="10"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="11"/>
+      <c r="A219" s="10"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="11"/>
+      <c r="A220" s="10"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="11"/>
+      <c r="A221" s="10"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="11"/>
+      <c r="A222" s="10"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="11"/>
+      <c r="A223" s="10"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="11"/>
+      <c r="A224" s="10"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="11"/>
+      <c r="A225" s="10"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="11"/>
+      <c r="A226" s="10"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="11"/>
+      <c r="A227" s="10"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="11"/>
+      <c r="A228" s="10"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="11"/>
+      <c r="A229" s="10"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="11"/>
+      <c r="A230" s="10"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="11"/>
+      <c r="A231" s="10"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="11"/>
+      <c r="A232" s="10"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="11"/>
+      <c r="A233" s="10"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="11"/>
+      <c r="A234" s="10"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="11"/>
+      <c r="A235" s="10"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="11"/>
+      <c r="A236" s="10"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="11"/>
+      <c r="A237" s="10"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="11"/>
+      <c r="A238" s="10"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="11"/>
+      <c r="A239" s="10"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="11"/>
+      <c r="A240" s="10"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="11"/>
+      <c r="A241" s="10"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="11"/>
+      <c r="A242" s="10"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="11"/>
+      <c r="A243" s="10"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="11"/>
+      <c r="A244" s="10"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="11"/>
+      <c r="A245" s="10"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="11"/>
+      <c r="A246" s="10"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="11"/>
+      <c r="A247" s="10"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="11"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="11"/>
+      <c r="A249" s="10"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="11"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="11"/>
+      <c r="A251" s="10"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="11"/>
+      <c r="A252" s="10"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="11"/>
+      <c r="A253" s="10"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="11"/>
+      <c r="A254" s="10"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="11"/>
+      <c r="A255" s="10"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="11"/>
+      <c r="A256" s="10"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="11"/>
+      <c r="A257" s="10"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="11"/>
+      <c r="A258" s="10"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="11"/>
+      <c r="A259" s="10"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="11"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="11"/>
+      <c r="A261" s="10"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="11"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="11"/>
+      <c r="A263" s="10"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="11"/>
+      <c r="A264" s="10"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="11"/>
+      <c r="A265" s="10"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="11"/>
+      <c r="A266" s="10"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="11"/>
+      <c r="A267" s="10"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="11"/>
+      <c r="A268" s="10"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="11"/>
+      <c r="A269" s="10"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="11"/>
+      <c r="A270" s="10"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="11"/>
+      <c r="A271" s="10"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="11"/>
+      <c r="A272" s="10"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="11"/>
+      <c r="A273" s="10"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="11"/>
+      <c r="A274" s="10"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="11"/>
+      <c r="A275" s="10"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="11"/>
+      <c r="A276" s="10"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="11"/>
+      <c r="A277" s="10"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="11"/>
+      <c r="A278" s="10"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="11"/>
+      <c r="A279" s="10"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="11"/>
+      <c r="A280" s="10"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="11"/>
+      <c r="A281" s="10"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="11"/>
+      <c r="A282" s="10"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="11"/>
+      <c r="A283" s="10"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="11"/>
+      <c r="A284" s="10"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="11"/>
+      <c r="A285" s="10"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="11"/>
+      <c r="A286" s="10"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="11"/>
+      <c r="A287" s="10"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="11"/>
+      <c r="A288" s="10"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="11"/>
+      <c r="A289" s="10"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="11"/>
+      <c r="A290" s="10"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="11"/>
+      <c r="A291" s="10"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="11"/>
+      <c r="A292" s="10"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="11"/>
+      <c r="A293" s="10"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="11"/>
+      <c r="A294" s="10"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="11"/>
+      <c r="A295" s="10"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="11"/>
+      <c r="A296" s="10"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="11"/>
+      <c r="A297" s="10"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="11"/>
+      <c r="A298" s="10"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="11"/>
+      <c r="A299" s="10"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="11"/>
+      <c r="A300" s="10"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="11"/>
+      <c r="A301" s="10"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="11"/>
+      <c r="A302" s="10"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="11"/>
+      <c r="A303" s="10"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="11"/>
+      <c r="A304" s="10"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="11"/>
+      <c r="A305" s="10"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="11"/>
+      <c r="A306" s="10"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="11"/>
+      <c r="A307" s="10"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="11"/>
+      <c r="A308" s="10"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="11"/>
+      <c r="A309" s="10"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="11"/>
+      <c r="A310" s="10"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="11"/>
+      <c r="A311" s="10"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="11"/>
+      <c r="A312" s="10"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="11"/>
+      <c r="A313" s="10"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="11"/>
+      <c r="A314" s="10"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="11"/>
+      <c r="A315" s="10"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="11"/>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="11"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="11"/>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="11"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="11"/>
-      <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="11"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="11"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="11"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="11"/>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="11"/>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="11"/>
-      <c r="B326" s="3"/>
-      <c r="C326" s="3"/>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="11"/>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="11"/>
+    <row r="316" spans="1:1">
+      <c r="A316" s="10"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A9:C53">
@@ -4670,7 +4294,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -4682,27 +4306,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="167">
   <si>
     <t>type</t>
   </si>
@@ -60,7 +60,7 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>select_one enumarator</t>
+    <t>string</t>
   </si>
   <si>
     <t>d_enumerator</t>
@@ -69,7 +69,7 @@
     <t>Enumerator</t>
   </si>
   <si>
-    <t>Select your name/number</t>
+    <t>Write first and last name</t>
   </si>
   <si>
     <t>yes</t>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>${d_IDMethod} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>d_code_id</t>
@@ -523,10 +520,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>3. Kenya - Pre TAS LF FTS Results Form V2</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_3_resultat_fts_202203_v2</t>
+    <t>3. Kenya - Pre TAS LF FTS Results Form V3</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_3_resultat_fts_202203_v3</t>
   </si>
   <si>
     <t>English</t>
@@ -538,8 +535,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -596,6 +593,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -603,6 +607,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,6 +657,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -631,21 +688,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -660,26 +718,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,52 +730,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -751,7 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +760,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,43 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,13 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,19 +838,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,25 +898,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,31 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +976,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +1011,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1028,177 +1054,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1618,12 +1615,12 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1863,43 +1860,42 @@
     </row>
     <row r="9" s="9" customFormat="1" spans="1:10">
       <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="20"/>
       <c r="H9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>49</v>
+      </c>
       <c r="J9" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
       <c r="A10" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
@@ -1911,13 +1907,13 @@
     </row>
     <row r="11" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1934,13 +1930,13 @@
     </row>
     <row r="12" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1957,13 +1953,13 @@
     </row>
     <row r="13" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1980,20 +1976,20 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
       <c r="A14" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="27"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="27" t="s">
@@ -2005,16 +2001,16 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -2030,20 +2026,20 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:13">
       <c r="A16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="30"/>
       <c r="H16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="27" t="s">
@@ -2055,20 +2051,20 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="C17" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="30"/>
       <c r="H17" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="27" t="s">
@@ -2080,10 +2076,10 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:13">
       <c r="A18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -2092,7 +2088,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="22"/>
       <c r="I18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>18</v>
@@ -2103,20 +2099,20 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="57" spans="1:13">
       <c r="A19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="30"/>
       <c r="H19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="27"/>
@@ -2126,20 +2122,20 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:13">
       <c r="A20" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="30"/>
       <c r="H20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="27" t="s">
@@ -2151,22 +2147,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="D21" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="26"/>
       <c r="H21" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="27" t="s">
@@ -2178,22 +2174,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="26"/>
       <c r="H22" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="27" t="s">
@@ -2205,22 +2201,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>91</v>
-      </c>
       <c r="D23" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="26"/>
       <c r="H23" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="27" t="s">
@@ -2232,10 +2228,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
@@ -2243,10 +2239,10 @@
       <c r="F24" s="24"/>
       <c r="G24" s="26"/>
       <c r="H24" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -2255,67 +2251,67 @@
     </row>
     <row r="25" ht="56.25" customHeight="1" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" ht="28.5" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="H27" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
         <v>104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +2341,7 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2354,233 +2350,233 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
         <v>119</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:3">
       <c r="A14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="C14" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:3">
       <c r="A19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -2589,72 +2585,72 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2664,143 +2660,142 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30"/>
+        <v>149</v>
+      </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2810,7 +2805,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41">
         <v>101</v>
@@ -2819,12 +2814,12 @@
         <v>101</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42">
         <v>102</v>
@@ -2833,12 +2828,12 @@
         <v>102</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43">
         <v>103</v>
@@ -2847,12 +2842,12 @@
         <v>103</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>104</v>
@@ -2861,12 +2856,12 @@
         <v>104</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <v>105</v>
@@ -2875,12 +2870,12 @@
         <v>105</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46">
         <v>106</v>
@@ -2889,12 +2884,12 @@
         <v>106</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47">
         <v>107</v>
@@ -2903,12 +2898,12 @@
         <v>107</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -2917,12 +2912,12 @@
         <v>108</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49">
         <v>109</v>
@@ -2931,12 +2926,12 @@
         <v>109</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50">
         <v>110</v>
@@ -2945,7 +2940,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4293,8 +4288,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -4306,27 +4301,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="170">
   <si>
     <t>type</t>
   </si>
@@ -478,31 +478,40 @@
     <t>Chaani</t>
   </si>
   <si>
-    <t>Chuda</t>
-  </si>
-  <si>
-    <t>Kidongo Basi</t>
-  </si>
-  <si>
-    <t>Majengo</t>
+    <t>Msikiti Nuru</t>
+  </si>
+  <si>
+    <t>Bengala</t>
+  </si>
+  <si>
+    <t>Ng Ombeni</t>
+  </si>
+  <si>
+    <t>Maweni Ya Timbuani Ward</t>
+  </si>
+  <si>
+    <t>Mweza Ya Mtongwe Ward</t>
+  </si>
+  <si>
+    <t>Majengo Mapya</t>
+  </si>
+  <si>
+    <t>Tudor</t>
+  </si>
+  <si>
+    <t>Kidongo Basi (Mogadishu)</t>
   </si>
   <si>
     <t>Maweni</t>
   </si>
   <si>
-    <t>Maweni ya Timbuani ward</t>
-  </si>
-  <si>
-    <t>Msikiti Nuru</t>
-  </si>
-  <si>
-    <t>Mtopanga</t>
-  </si>
-  <si>
-    <t>Ng.ombeni</t>
-  </si>
-  <si>
-    <t>Vijiweni ya Mtongwe ward</t>
+    <t>site_type</t>
+  </si>
+  <si>
+    <t>Sentinel Site</t>
+  </si>
+  <si>
+    <t>Spot Check</t>
   </si>
   <si>
     <t>cluster_id</t>
@@ -520,10 +529,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>3. Kenya - Pre TAS LF FTS Results Form V3</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_3_resultat_fts_202203_v3</t>
+    <t>3. Kenya - Pre TAS LF FTS Results Form V4</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_3_resultat_fts_202203_v4</t>
   </si>
   <si>
     <t>English</t>
@@ -534,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -597,21 +606,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -621,21 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +636,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -667,6 +662,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,30 +684,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,18 +719,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,7 +763,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,13 +817,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,25 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,91 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,19 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,26 +966,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,159 +1049,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1615,12 +1624,12 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2329,7 +2338,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2683,7 +2692,7 @@
         <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2697,7 +2706,7 @@
         <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2711,7 +2720,7 @@
         <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2725,7 +2734,7 @@
         <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2753,7 +2762,7 @@
         <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2767,7 +2776,7 @@
         <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2781,7 +2790,7 @@
         <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2795,7 +2804,7 @@
         <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2807,11 +2816,11 @@
       <c r="A41" t="s">
         <v>159</v>
       </c>
-      <c r="B41">
-        <v>101</v>
-      </c>
-      <c r="C41">
-        <v>101</v>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>149</v>
@@ -2821,11 +2830,11 @@
       <c r="A42" t="s">
         <v>159</v>
       </c>
-      <c r="B42">
-        <v>102</v>
-      </c>
-      <c r="C42">
-        <v>102</v>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>150</v>
@@ -2835,11 +2844,11 @@
       <c r="A43" t="s">
         <v>159</v>
       </c>
-      <c r="B43">
-        <v>103</v>
-      </c>
-      <c r="C43">
-        <v>103</v>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>151</v>
@@ -2849,11 +2858,11 @@
       <c r="A44" t="s">
         <v>159</v>
       </c>
-      <c r="B44">
-        <v>104</v>
-      </c>
-      <c r="C44">
-        <v>104</v>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>152</v>
@@ -2863,11 +2872,11 @@
       <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="B45">
-        <v>105</v>
-      </c>
-      <c r="C45">
-        <v>105</v>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>153</v>
@@ -2877,11 +2886,11 @@
       <c r="A46" t="s">
         <v>159</v>
       </c>
-      <c r="B46">
-        <v>106</v>
-      </c>
-      <c r="C46">
-        <v>106</v>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>154</v>
@@ -2891,11 +2900,11 @@
       <c r="A47" t="s">
         <v>159</v>
       </c>
-      <c r="B47">
-        <v>107</v>
-      </c>
-      <c r="C47">
-        <v>107</v>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>155</v>
@@ -2905,11 +2914,11 @@
       <c r="A48" t="s">
         <v>159</v>
       </c>
-      <c r="B48">
-        <v>108</v>
-      </c>
-      <c r="C48">
-        <v>108</v>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>156</v>
@@ -2919,11 +2928,11 @@
       <c r="A49" t="s">
         <v>159</v>
       </c>
-      <c r="B49">
-        <v>109</v>
-      </c>
-      <c r="C49">
-        <v>109</v>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>157</v>
@@ -2933,11 +2942,11 @@
       <c r="A50" t="s">
         <v>159</v>
       </c>
-      <c r="B50">
-        <v>110</v>
-      </c>
-      <c r="C50">
-        <v>110</v>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>158</v>
@@ -2948,55 +2957,145 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="3">
+        <v>101</v>
+      </c>
+      <c r="C52" s="3">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="3">
+        <v>107</v>
+      </c>
+      <c r="C53" s="3">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="3">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3">
+        <v>108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="3">
+        <v>109</v>
+      </c>
+      <c r="C55" s="3">
+        <v>109</v>
+      </c>
+      <c r="F55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="3">
+        <v>106</v>
+      </c>
+      <c r="C56" s="3">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="3">
+        <v>110</v>
+      </c>
+      <c r="C57" s="3">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="3">
+        <v>104</v>
+      </c>
+      <c r="C58" s="3">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="3">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3">
+        <v>102</v>
+      </c>
+      <c r="F59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="3">
+        <v>103</v>
+      </c>
+      <c r="C60" s="3">
+        <v>103</v>
+      </c>
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="3">
+        <v>105</v>
+      </c>
+      <c r="C61" s="3">
+        <v>105</v>
+      </c>
+      <c r="F61" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10"/>
@@ -4288,8 +4387,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -4301,27 +4400,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_3_resultat_fts_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12390" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
   <si>
     <t>type</t>
   </si>
@@ -529,10 +529,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>3. Kenya - Pre TAS LF FTS Results Form V4</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_3_resultat_fts_202203_v4</t>
+    <t>3. Kenya - Pre TAS LF FTS Results Form V4.1</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_3_resultat_fts_202203_v4_1</t>
   </si>
   <si>
     <t>English</t>
@@ -544,9 +544,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -606,14 +606,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -621,16 +613,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,31 +652,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,8 +689,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -705,32 +718,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,6 +731,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -763,7 +763,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,67 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,61 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,31 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,6 +966,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -990,56 +1055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1048,160 +1063,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1625,11 +1625,11 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
       <c r="A14" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>61</v>
@@ -1997,13 +1997,9 @@
       <c r="E14" s="27"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="17"/>
@@ -2131,7 +2127,7 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:13">
       <c r="A20" s="17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>81</v>
@@ -2147,9 +2143,7 @@
         <v>80</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="J20" s="27"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -4388,7 +4382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
